--- a/chucnang/srs/xoa/testcase_xoa.xlsx
+++ b/chucnang/srs/xoa/testcase_xoa.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="111">
   <si>
     <t>Test case xóa đơn vị, xóa nhân viên, xóa kế hoạch, xóa công việc, xóa công việc đột xuất</t>
   </si>
@@ -26,10 +26,13 @@
     <t>Người tạo: Trương Thị Cẩm Tiên</t>
   </si>
   <si>
-    <t>Tổng</t>
+    <t>Tổng: 22</t>
   </si>
   <si>
     <t>Tỷ lệ</t>
+  </si>
+  <si>
+    <t>Đạt</t>
   </si>
   <si>
     <t>ID</t>
@@ -81,6 +84,9 @@
   </si>
   <si>
     <t>Trương Thị Cẩm Tiên</t>
+  </si>
+  <si>
+    <t>đạt</t>
   </si>
   <si>
     <t>Võ Văn Thạch</t>
@@ -222,6 +228,12 @@
 công việc đột xuất bị xóa khỏi danh sách các công việc đột xuất</t>
   </si>
   <si>
+    <t>Tổng:13</t>
+  </si>
+  <si>
+    <t>Đạt:13</t>
+  </si>
+  <si>
     <t>GUI_X1</t>
   </si>
   <si>
@@ -354,9 +366,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="d/m"/>
-    <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -394,7 +405,7 @@
       <name val="Times New Roman"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,6 +416,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6AA84F"/>
+        <bgColor rgb="FF6AA84F"/>
       </patternFill>
     </fill>
   </fills>
@@ -506,11 +523,11 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -545,10 +562,10 @@
     <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -556,10 +573,10 @@
     <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -879,8 +896,7 @@
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -913,9 +929,15 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5">
+        <v>22.0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1.0</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -999,34 +1021,34 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -1049,29 +1071,31 @@
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
-      <c r="H8" s="18"/>
+      <c r="H8" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="I8" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J8" s="19">
         <v>45098.0</v>
@@ -1101,13 +1125,15 @@
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
       <c r="E9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="23"/>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="7"/>
@@ -1135,11 +1161,11 @@
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
       <c r="E10" s="22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
-      <c r="F10" s="24"/>
+      <c r="F10" s="23"/>
       <c r="G10" s="21"/>
-      <c r="H10" s="23"/>
+      <c r="H10" s="24"/>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="7"/>
@@ -1167,13 +1193,15 @@
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
       <c r="E11" s="22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G11" s="21"/>
-      <c r="H11" s="23"/>
+      <c r="H11" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="7"/>
@@ -1201,13 +1229,15 @@
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
       <c r="E12" s="27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G12" s="21"/>
-      <c r="H12" s="23"/>
+      <c r="H12" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="7"/>
@@ -1231,25 +1261,27 @@
     </row>
     <row r="13">
       <c r="A13" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G13" s="21"/>
-      <c r="H13" s="23"/>
+      <c r="H13" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
       <c r="K13" s="7"/>
@@ -1277,13 +1309,15 @@
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
       <c r="E14" s="15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G14" s="21"/>
-      <c r="H14" s="23"/>
+      <c r="H14" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="7"/>
@@ -1311,11 +1345,11 @@
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
       <c r="E15" s="22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F15" s="30"/>
       <c r="G15" s="21"/>
-      <c r="H15" s="23"/>
+      <c r="H15" s="24"/>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
       <c r="K15" s="7"/>
@@ -1343,13 +1377,15 @@
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
       <c r="E16" s="22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F16" s="30" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G16" s="21"/>
-      <c r="H16" s="23"/>
+      <c r="H16" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
       <c r="K16" s="7"/>
@@ -1377,13 +1413,15 @@
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
       <c r="E17" s="27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G17" s="21"/>
-      <c r="H17" s="23"/>
+      <c r="H17" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
       <c r="K17" s="7"/>
@@ -1407,25 +1445,27 @@
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G18" s="21"/>
-      <c r="H18" s="23"/>
+      <c r="H18" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
       <c r="K18" s="7"/>
@@ -1453,13 +1493,15 @@
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
       <c r="E19" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G19" s="21"/>
-      <c r="H19" s="23"/>
+      <c r="H19" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
       <c r="K19" s="7"/>
@@ -1487,13 +1529,15 @@
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
       <c r="E20" s="31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G20" s="21"/>
-      <c r="H20" s="23"/>
+      <c r="H20" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
       <c r="K20" s="7"/>
@@ -1521,11 +1565,11 @@
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
-      <c r="F21" s="24"/>
+      <c r="F21" s="23"/>
       <c r="G21" s="21"/>
-      <c r="H21" s="23"/>
+      <c r="H21" s="24"/>
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
       <c r="K21" s="7"/>
@@ -1553,13 +1597,15 @@
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
       <c r="E22" s="22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F22" s="31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G22" s="21"/>
-      <c r="H22" s="23"/>
+      <c r="H22" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
       <c r="K22" s="7"/>
@@ -1587,13 +1633,15 @@
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
       <c r="E23" s="31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F23" s="31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G23" s="21"/>
-      <c r="H23" s="23"/>
+      <c r="H23" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
       <c r="K23" s="7"/>
@@ -1617,25 +1665,27 @@
     </row>
     <row r="24">
       <c r="A24" s="11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G24" s="21"/>
-      <c r="H24" s="23"/>
+      <c r="H24" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="I24" s="20"/>
       <c r="J24" s="20"/>
       <c r="K24" s="7"/>
@@ -1663,13 +1713,15 @@
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
       <c r="E25" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G25" s="21"/>
-      <c r="H25" s="23"/>
+      <c r="H25" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
       <c r="K25" s="7"/>
@@ -1697,13 +1749,15 @@
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
       <c r="E26" s="31" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G26" s="21"/>
-      <c r="H26" s="23"/>
+      <c r="H26" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
       <c r="K26" s="7"/>
@@ -1731,11 +1785,11 @@
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
       <c r="E27" s="22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
-      <c r="F27" s="24"/>
+      <c r="F27" s="23"/>
       <c r="G27" s="21"/>
-      <c r="H27" s="23"/>
+      <c r="H27" s="24"/>
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
       <c r="K27" s="7"/>
@@ -1763,13 +1817,15 @@
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
       <c r="E28" s="22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F28" s="31" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G28" s="21"/>
-      <c r="H28" s="23"/>
+      <c r="H28" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
       <c r="K28" s="7"/>
@@ -1797,13 +1853,15 @@
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
       <c r="E29" s="31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F29" s="31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G29" s="21"/>
-      <c r="H29" s="23"/>
+      <c r="H29" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
       <c r="K29" s="7"/>
@@ -1827,25 +1885,27 @@
     </row>
     <row r="30">
       <c r="A30" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G30" s="21"/>
-      <c r="H30" s="23"/>
+      <c r="H30" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="I30" s="20"/>
       <c r="J30" s="20"/>
       <c r="K30" s="7"/>
@@ -1873,13 +1933,15 @@
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
       <c r="E31" s="31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G31" s="21"/>
-      <c r="H31" s="23"/>
+      <c r="H31" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="I31" s="20"/>
       <c r="J31" s="20"/>
       <c r="K31" s="7"/>
@@ -1907,11 +1969,11 @@
       <c r="C32" s="21"/>
       <c r="D32" s="21"/>
       <c r="E32" s="22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
-      <c r="F32" s="24"/>
+      <c r="F32" s="23"/>
       <c r="G32" s="21"/>
-      <c r="H32" s="23"/>
+      <c r="H32" s="24"/>
       <c r="I32" s="20"/>
       <c r="J32" s="20"/>
       <c r="K32" s="7"/>
@@ -1939,13 +2001,15 @@
       <c r="C33" s="21"/>
       <c r="D33" s="21"/>
       <c r="E33" s="22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F33" s="31" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G33" s="21"/>
-      <c r="H33" s="23"/>
+      <c r="H33" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="I33" s="20"/>
       <c r="J33" s="20"/>
       <c r="K33" s="7"/>
@@ -1973,13 +2037,15 @@
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
       <c r="E34" s="31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F34" s="31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G34" s="26"/>
-      <c r="H34" s="23"/>
+      <c r="H34" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="I34" s="25"/>
       <c r="J34" s="25"/>
       <c r="K34" s="7"/>
@@ -31522,34 +31588,35 @@
       <c r="AB1018" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="28">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G8:G34"/>
+    <mergeCell ref="I8:I34"/>
+    <mergeCell ref="J8:J34"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="B8:B12"/>
     <mergeCell ref="C8:C12"/>
     <mergeCell ref="D8:D12"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B17"/>
     <mergeCell ref="C13:C17"/>
     <mergeCell ref="D13:D17"/>
     <mergeCell ref="B18:B23"/>
     <mergeCell ref="C18:C23"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="D30:D34"/>
     <mergeCell ref="A18:A23"/>
-    <mergeCell ref="D18:D23"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G8:G34"/>
-    <mergeCell ref="J8:J34"/>
-    <mergeCell ref="I8:I34"/>
-    <mergeCell ref="D24:D29"/>
+    <mergeCell ref="A24:A29"/>
     <mergeCell ref="B24:B29"/>
     <mergeCell ref="C24:C29"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="D24:D29"/>
     <mergeCell ref="A30:A34"/>
     <mergeCell ref="B30:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="A24:A29"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -31628,8 +31695,8 @@
         <v>3</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>4</v>
+      <c r="G3" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>5</v>
@@ -31662,8 +31729,12 @@
       <c r="D4" s="2"/>
       <c r="E4" s="4"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
+      <c r="G4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1.0</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -31747,34 +31818,34 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -31797,29 +31868,31 @@
     </row>
     <row r="8">
       <c r="A8" s="35" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
-      <c r="H8" s="18"/>
+      <c r="H8" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="I8" s="11" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J8" s="19">
         <v>45098.0</v>
@@ -31845,25 +31918,27 @@
     </row>
     <row r="9">
       <c r="A9" s="35" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="37" t="s">
-        <v>68</v>
+      <c r="G9" s="21"/>
+      <c r="H9" s="18" t="s">
+        <v>24</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="23"/>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="7"/>
@@ -31887,25 +31962,27 @@
     </row>
     <row r="10">
       <c r="A10" s="35" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G10" s="21"/>
-      <c r="H10" s="23"/>
+      <c r="H10" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="7"/>
@@ -31929,25 +32006,27 @@
     </row>
     <row r="11">
       <c r="A11" s="35" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G11" s="21"/>
-      <c r="H11" s="23"/>
+      <c r="H11" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="7"/>
@@ -31971,25 +32050,27 @@
     </row>
     <row r="12">
       <c r="A12" s="35" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G12" s="21"/>
-      <c r="H12" s="23"/>
+      <c r="H12" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="7"/>
@@ -32013,25 +32094,27 @@
     </row>
     <row r="13">
       <c r="A13" s="35" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G13" s="21"/>
-      <c r="H13" s="23"/>
+      <c r="H13" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
       <c r="K13" s="7"/>
@@ -32055,25 +32138,27 @@
     </row>
     <row r="14">
       <c r="A14" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="31" t="s">
-        <v>87</v>
+      <c r="G14" s="21"/>
+      <c r="H14" s="18" t="s">
+        <v>24</v>
       </c>
-      <c r="C14" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="23"/>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="7"/>
@@ -32097,25 +32182,27 @@
     </row>
     <row r="15">
       <c r="A15" s="35" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G15" s="21"/>
-      <c r="H15" s="23"/>
+      <c r="H15" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
       <c r="K15" s="7"/>
@@ -32139,25 +32226,27 @@
     </row>
     <row r="16">
       <c r="A16" s="35" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G16" s="21"/>
-      <c r="H16" s="23"/>
+      <c r="H16" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
       <c r="K16" s="7"/>
@@ -32181,25 +32270,27 @@
     </row>
     <row r="17">
       <c r="A17" s="35" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G17" s="21"/>
-      <c r="H17" s="23"/>
+      <c r="H17" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
       <c r="K17" s="7"/>
@@ -32223,25 +32314,27 @@
     </row>
     <row r="18">
       <c r="A18" s="35" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G18" s="21"/>
-      <c r="H18" s="23"/>
+      <c r="H18" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
       <c r="K18" s="7"/>
@@ -32265,25 +32358,27 @@
     </row>
     <row r="19">
       <c r="A19" s="35" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G19" s="21"/>
-      <c r="H19" s="23"/>
+      <c r="H19" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
       <c r="K19" s="7"/>
@@ -32307,25 +32402,27 @@
     </row>
     <row r="20">
       <c r="A20" s="35" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G20" s="26"/>
-      <c r="H20" s="23"/>
+      <c r="H20" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
       <c r="K20" s="7"/>
@@ -61839,10 +61936,10 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A1:L1"/>
     <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G8:G20"/>
     <mergeCell ref="I8:I20"/>
     <mergeCell ref="J8:J20"/>
